--- a/biology/Microbiologie/Mollicutes/Mollicutes.xlsx
+++ b/biology/Microbiologie/Mollicutes/Mollicutes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[2]Les Mollicutes sont une classe de bactéries du phylum des Mycoplasmatota. Son nom, tiré du latin mollis (mou) et cutis (peau) peut se traduire par « paroi molle ». Sur le plan morphologique, ces bactéries se distinguent en effet par leur petite taille (de l'ordre de 0,2 à 0,3 µm en général) et surtout par l'absence de paroi rigide. Leur membrane plasmique, néanmoins, est souvent partiellement rigidifiée par la présence de stérols. Leur génome est aussi remarquablement court, reflet d'un phénomène d'évolution réductive (en) en lien avec leur mode de vie habituellement parasite. Leur déplacement se fait le plus souvent par glissement, bien que le genre Spiroplasma soit doté d'une forme hélicoïdale qui permet à ces bactéries de se translater en tournant sur elles-mêmes à la manière des Spirochètes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mollicutes sont une classe de bactéries du phylum des Mycoplasmatota. Son nom, tiré du latin mollis (mou) et cutis (peau) peut se traduire par « paroi molle ». Sur le plan morphologique, ces bactéries se distinguent en effet par leur petite taille (de l'ordre de 0,2 à 0,3 µm en général) et surtout par l'absence de paroi rigide. Leur membrane plasmique, néanmoins, est souvent partiellement rigidifiée par la présence de stérols. Leur génome est aussi remarquablement court, reflet d'un phénomène d'évolution réductive (en) en lien avec leur mode de vie habituellement parasite. Leur déplacement se fait le plus souvent par glissement, bien que le genre Spiroplasma soit doté d'une forme hélicoïdale qui permet à ces bactéries de se translater en tournant sur elles-mêmes à la manière des Spirochètes.
 Certaines Mollicutes, en particulier des genres Mycoplasma et Ureaplasma, sont des agents pathogènes humains capables d'infecter les voies respiratoires ou urogénitales. Spiroplasma et les phytoplasmes sont des agents phytopathogènes associés à des insectes vecteurs ou à des acariens. D'autres peuvent causer des pododermatites chez certains animaux.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Origines, évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycoplasmes sont-ils des descendants d’une bactérie primitive qui aurait existé avant le développement du peptidoglycane ou ne seraient-ils que des formes dégénérées d’eubactéries qui auraient perdu leur paroi ?
 L'hypothèse retenue actuellement d'après l'étude des séquences d'ARN ribosomique 16S est qu'au contraire les mycoplasmes sont des formes très évoluées et récentes, dérivées de bactéries à Gram positif à faible teneur en guanine + cytosine.
@@ -547,7 +561,9 @@
           <t>Description et caractères bactériologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Mollicutes rassemble des organismes procaryotes dépourvus de paroi et incapables de synthétiser le peptidoglycane.
 Ce sont donc des micro-organismes polymorphes (sphérique ou piriforme au filament hélicoïdal, ou ramifié). Ils sont généralement immobiles, mais certaines espèces peuvent se déplacer par « glissement »,
@@ -583,7 +599,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut se faire sur milieu inerte mais certaines espèces se développent mieux sur cultures cellulaires. Sur milieux solides ils forment des colonies très typiques « en œuf sur le plat » avec une zone centrale opaque et une zone périphérique étendue.
 La plupart des mycoplasmes ont des exigences nutritives très strictes, ils se développent sur des milieux complexes, riches, additionnés d’une forte concentration de sérum. Ils exigent le plus souvent du stérol ou des acides gras pour la croissance.
@@ -618,7 +636,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mollicutes sont des espèces parasites, commensales ou saprophytes des plantes, des insectes, des tiques, des animaux dont l'humain. Elles provoquent des maladies nommées « mycoplasmoses ».
 L'habitat des Mycoplasma est représenté par la surface muqueuse du tractus respiratoire ou génital, les yeux, les glandes mammaires, les articulations des animaux dont l'être humain.
@@ -651,15 +671,17 @@
           <t>Pathologies de mammifères (dont humains)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Certaines mollicutes sont pathogènes pour l'être humain[3]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Certaines mollicutes sont pathogènes pour l'être humain
 Mycoplasma mycoides est l'agent responsable de la péripneumonie contagieuse bovine (PPCB).
-Mycoplasma hominis et Ureaplasma urealyticum surviennent le plus souvent dans un contexte de flore vaginale déséquilibrée[2]
+Mycoplasma hominis et Ureaplasma urealyticum surviennent le plus souvent dans un contexte de flore vaginale déséquilibrée
 Mycoplasma pneumoniae provoque des infections respiratoires.
 Mycoplasma agalactiae est une des espèces responsables du syndrome de l'agalaxie contagieuse des petits ruminants (chèvre, mouton).
 Mycoplasma bovis est pathogène chez les bovins, responsable de bronchopneumonies, d'otites moyennes chez le veau et de mammites chez la vache.
-Mycoplasma genitalium est un parasite des voies génitales de l'homme et la femme. Il est exclusivement sexuellement transmissible et nécessite un traitement spécifique[2].
+Mycoplasma genitalium est un parasite des voies génitales de l'homme et la femme. Il est exclusivement sexuellement transmissible et nécessite un traitement spécifique.
 Facteur pathologique pour d'autres groupes (insectes, plantes) : diverses espèces sont associées à des parasitoses d'insectes ou de plantes, ou sont des commensales de ces espèces.
 Les espèces du genre Spiroplasma parasitent des végétaux (provoquent le jaunissement) et/ou sont pathogène de certains insectes ;
 Les espèces du genre Entomoplasma ont été isolées chez des plantes et des insectes ;
@@ -692,9 +714,11 @@
           <t>Liste d'ordres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (29 novembre 2022)[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (29 novembre 2022) :
 Acholeplasmatales Freundt et al. 1984
 Anaeroplasmatales Robinson &amp; Freundt 1987
 Entomoplasmatales Tully et al. 1993
